--- a/data/trans_orig/LAWTONBRODY-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONBRODY-Dificultad-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>6.851476345412637</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6.305982482860002</v>
+        <v>6.305982482860001</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>6.379056748356436</v>
@@ -693,7 +693,7 @@
         <v>6.490502272193017</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>5.694751061471629</v>
+        <v>5.694751061471628</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.272321774746307</v>
+        <v>6.320002414802572</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.809028383867077</v>
+        <v>5.780074298870293</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.490770520402197</v>
+        <v>6.486495971780612</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.769103333878809</v>
+        <v>5.830382017355928</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>6.055011700622363</v>
+        <v>6.048554184740107</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.474272997968892</v>
+        <v>5.460500758449254</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>5.879946203688069</v>
+        <v>5.926890108757422</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>5.049200788959383</v>
+        <v>5.03639709002602</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.243380297740075</v>
+        <v>6.219391672112052</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5.688887604710548</v>
+        <v>5.714769180824484</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6.223066717434004</v>
+        <v>6.225617845324361</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>5.409855495524621</v>
+        <v>5.386554732148773</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.085910390807612</v>
+        <v>7.109961663474362</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.723319828805412</v>
+        <v>6.750091727320401</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.129427355098539</v>
+        <v>7.162897823567654</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.750884255867324</v>
+        <v>6.742208906954692</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.678794036767807</v>
+        <v>6.643820608706634</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.233282476488237</v>
+        <v>6.223163002892458</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.577731778388158</v>
+        <v>6.580815172060512</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.748816707226812</v>
+        <v>5.727953378763765</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.746584741618861</v>
+        <v>6.735327009651471</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6.31536744568831</v>
+        <v>6.315387785900797</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6.735827333675241</v>
+        <v>6.712795784706588</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>5.956238112787206</v>
+        <v>5.963520436161488</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>7.294630971564226</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6.69625970628547</v>
+        <v>6.696259706285469</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>7.088426707400263</v>
@@ -817,7 +817,7 @@
         <v>6.722961399066345</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>6.035206542326638</v>
+        <v>6.035206542326637</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>7.045372587618073</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.656454247825153</v>
+        <v>6.660499167414826</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.404127122175826</v>
+        <v>6.35809169150823</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.989689384004696</v>
+        <v>7.010653499890604</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6.387874813634683</v>
+        <v>6.418152337263455</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>6.764862184301562</v>
+        <v>6.789059231321662</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>5.7904494925946</v>
+        <v>5.787155125507788</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>6.363153249368202</v>
+        <v>6.323075246425994</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>5.788317361813898</v>
+        <v>5.787050691804138</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>6.837779864743975</v>
+        <v>6.831176595386033</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6.14574178122231</v>
+        <v>6.177726453204276</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6.745779898529261</v>
+        <v>6.748606953385747</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>6.096217309636011</v>
+        <v>6.122527308690318</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.246701079938743</v>
+        <v>7.260632244281826</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.185246112334665</v>
+        <v>7.180321690556786</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.502626991378077</v>
+        <v>7.500388221015664</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.919374671793172</v>
+        <v>6.963660084690987</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>7.31586622472715</v>
+        <v>7.31975844053216</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>6.513770380856495</v>
+        <v>6.51558658848383</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>7.027254273883934</v>
+        <v>7.002825654814129</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>6.256838009192794</v>
+        <v>6.261532913783986</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>7.234279484707729</v>
+        <v>7.233993201660565</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6.704887614072749</v>
+        <v>6.716954782662336</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7.164677796591029</v>
+        <v>7.166816945145571</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>6.464303147254463</v>
+        <v>6.487751286019532</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>7.314752718006968</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.298616569158919</v>
+        <v>7.29861656915892</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>6.991994542928062</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.052632251711077</v>
+        <v>7.084530694991089</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.360507969151159</v>
+        <v>6.348281068380774</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.015233658432983</v>
+        <v>7.010586080727719</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7.075501170734191</v>
+        <v>7.083319681782546</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>6.610195248303312</v>
+        <v>6.578647089810605</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.220528483820783</v>
+        <v>6.191615532606686</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>6.040341422865686</v>
+        <v>6.128971560880852</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>6.110053293782443</v>
+        <v>6.146092654445302</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.937877524439468</v>
+        <v>6.959202051364094</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6.427175742299585</v>
+        <v>6.420067534515478</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6.649127121391794</v>
+        <v>6.644802841267476</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>6.673758286948413</v>
+        <v>6.676007504136202</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.619529572607121</v>
+        <v>7.628277259823865</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.183284998637602</v>
+        <v>7.185062467565801</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.53497378906628</v>
+        <v>7.543306578600049</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.471169634782502</v>
+        <v>7.48414653424055</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.308381503088963</v>
+        <v>7.275199543776629</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.990074557571879</v>
+        <v>6.976588731287087</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.920554118779892</v>
+        <v>6.92925370521063</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>6.638683054376052</v>
+        <v>6.661193505113427</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.38921120984286</v>
+        <v>7.379580658437369</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6.99668687369874</v>
+        <v>6.950538120304497</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7.151264315602265</v>
+        <v>7.157917603013509</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>6.999045764629705</v>
+        <v>7.011167869972398</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>7.172249241111098</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>7.009784623911573</v>
+        <v>7.009784623911574</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.196505536687704</v>
+        <v>7.205973358009388</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.502245972366641</v>
+        <v>6.508097711001439</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.61831425540113</v>
+        <v>6.631180136974862</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.929536748201891</v>
+        <v>6.93844291040005</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>6.197373286965596</v>
+        <v>6.193782135380741</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>5.801278563998125</v>
+        <v>5.905066033246988</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>6.711922150048287</v>
+        <v>6.720952884552718</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>6.568570837626691</v>
+        <v>6.555843950215187</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>6.943851786794797</v>
+        <v>6.981052241727768</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6.350170397203824</v>
+        <v>6.408451281094815</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6.812102577010289</v>
+        <v>6.811199150238968</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>6.818141394129153</v>
+        <v>6.826543714272533</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.814231801986984</v>
+        <v>7.797029926437395</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.489461403322388</v>
+        <v>7.469502627327691</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.466185728648879</v>
+        <v>7.436586938824433</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.374084921999351</v>
+        <v>7.38228305615206</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>7.526874340778975</v>
+        <v>7.5305164972044</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>7.012155434403044</v>
+        <v>7.066987514108443</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>7.562483798020114</v>
+        <v>7.551883752313005</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>7.06955517062995</v>
+        <v>7.047801880466712</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>7.62118562587214</v>
+        <v>7.604790053752581</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7.122307426310334</v>
+        <v>7.128864881473336</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7.418616021249686</v>
+        <v>7.400839918285318</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>7.153802356840861</v>
+        <v>7.160378864738978</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>7.14446138310956</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.001121059139578</v>
+        <v>7.00112105913958</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>6.770896320849624</v>
@@ -1225,7 +1225,7 @@
         <v>6.597578324318117</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>6.223536639236589</v>
+        <v>6.223536639236591</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>6.914224171995712</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.935096633639361</v>
+        <v>6.940391215328526</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.488863953816487</v>
+        <v>6.48331148584318</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.984501533637219</v>
+        <v>6.983038533108762</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.859992357267548</v>
+        <v>6.854777402569717</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>6.574603308057715</v>
+        <v>6.59162959579191</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.022745241496438</v>
+        <v>6.037291516521548</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>6.396867213776992</v>
+        <v>6.39057275705266</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>6.078235683531554</v>
+        <v>6.103143874739237</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>6.773986927517885</v>
+        <v>6.780212272009086</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6.270540577747572</v>
+        <v>6.291183011836178</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6.705846035953371</v>
+        <v>6.710266022459153</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>6.470315681081895</v>
+        <v>6.474099546247175</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.262515452426906</v>
+        <v>7.26684745517835</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.943149800549341</v>
+        <v>6.940630871584531</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.282674413055515</v>
+        <v>7.295067861369204</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.130560438714226</v>
+        <v>7.133454549954212</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.939208562344389</v>
+        <v>6.942560374586603</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.437919824483587</v>
+        <v>6.435849420558611</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.772677107729259</v>
+        <v>6.768642772082609</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.344848965231622</v>
+        <v>6.364561651047611</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.028212555011836</v>
+        <v>7.029096991094792</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6.594401757063727</v>
+        <v>6.605140744264592</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6.942689510012457</v>
+        <v>6.963025264751745</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>6.672741709286357</v>
+        <v>6.657963415228928</v>
       </c>
     </row>
     <row r="19">
